--- a/Terms.XLSX
+++ b/Terms.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfbc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuksenko\Magistr\semester1\InternetTechnology\Wafia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F551204-E576-4298-89D8-6A995E330F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C660F74-8064-428E-B87A-9B8EB99FF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Администратор</t>
   </si>
@@ -45,18 +45,9 @@
     <t>Инфраструктура</t>
   </si>
   <si>
-    <t>Лицо, использующее сайт</t>
-  </si>
-  <si>
     <t>Пространство на карте, включающее в себя некоторое ненулевое количество элементов инфраструктуры</t>
   </si>
   <si>
-    <t>Совокупность предприятий, учреждений, систем управления, связи и т. п., обеспечивающая деятельность общества или какой-либо её сферы</t>
-  </si>
-  <si>
-    <t>Составляющая часть инфраструктуры (школа, больница, метро и др.). В зависимости от количества и расположения элементов делается вывод об оценке инфраструктуры в целом.</t>
-  </si>
-  <si>
     <t>Пользователь, обладающий правами на редактирование данных</t>
   </si>
   <si>
@@ -70,6 +61,21 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Совокупность элементов инфраструктуры, количество, разнообразие и взаимное расположение которых определяет состояние инфраструктруры в целом</t>
+  </si>
+  <si>
+    <t>Конкретное учреждение, предприятие, система управления, связи и т. п. предоставляющее определённые услуги и обеспечивающее деятельность общества или какой-то его сферы</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>Лицо, пользоющееся сервисом. Может быть: гость, пользователь, администратор</t>
+  </si>
+  <si>
+    <t>Лицо, пользующиеся сервисом</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +448,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -456,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -467,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -478,43 +484,54 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C8" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
